--- a/IDA2015/CAJARSCRIPT2/ElectricityOriginial.xlsx
+++ b/IDA2015/CAJARSCRIPT2/ElectricityOriginial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="0" windowWidth="24480" windowHeight="13320" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="2" r:id="rId1"/>
@@ -326,11 +326,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2140874552"/>
-        <c:axId val="2141038920"/>
+        <c:axId val="-2086250168"/>
+        <c:axId val="-2086243480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2140874552"/>
+        <c:axId val="-2086250168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -340,7 +340,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141038920"/>
+        <c:crossAx val="-2086243480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -348,7 +348,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2141038920"/>
+        <c:axId val="-2086243480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -359,7 +359,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2140874552"/>
+        <c:crossAx val="-2086250168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -615,11 +615,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2142322376"/>
-        <c:axId val="2142323784"/>
+        <c:axId val="2146763640"/>
+        <c:axId val="2146595208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2142322376"/>
+        <c:axId val="2146763640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -629,7 +629,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142323784"/>
+        <c:crossAx val="2146595208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -637,7 +637,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142323784"/>
+        <c:axId val="2146595208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -648,7 +648,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142322376"/>
+        <c:crossAx val="2146763640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -907,11 +907,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2145101592"/>
-        <c:axId val="2145104536"/>
+        <c:axId val="2146786936"/>
+        <c:axId val="2146728888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2145101592"/>
+        <c:axId val="2146786936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -921,7 +921,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2145104536"/>
+        <c:crossAx val="2146728888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -929,7 +929,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2145104536"/>
+        <c:axId val="2146728888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -940,14 +940,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2145101592"/>
+        <c:crossAx val="2146786936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -961,9 +960,10 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
 </chartsheet>
 </file>
@@ -972,7 +972,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="102" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="137" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -994,7 +994,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9213725" cy="5615392"/>
+    <xdr:ext cx="9214453" cy="5626934"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1021,7 +1021,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9213725" cy="5615392"/>
+    <xdr:ext cx="9214453" cy="5626934"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
